--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Ptprs.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H2">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N2">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P2">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q2">
-        <v>0.9910080443567777</v>
+        <v>0.11664457525</v>
       </c>
       <c r="R2">
-        <v>8.919072399210998</v>
+        <v>1.04980117725</v>
       </c>
       <c r="S2">
-        <v>0.002079945264154307</v>
+        <v>0.0001945285233321004</v>
       </c>
       <c r="T2">
-        <v>0.002079945264154307</v>
+        <v>0.0001945285233321004</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H3">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O3">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P3">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q3">
-        <v>8.071764827452554</v>
+        <v>1.768259963416666</v>
       </c>
       <c r="R3">
-        <v>72.64588344707299</v>
+        <v>15.91433967075</v>
       </c>
       <c r="S3">
-        <v>0.01694116321439568</v>
+        <v>0.002948932677010351</v>
       </c>
       <c r="T3">
-        <v>0.01694116321439569</v>
+        <v>0.002948932677010352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H4">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N4">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P4">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q4">
-        <v>5.240410315317555</v>
+        <v>1.25510019875</v>
       </c>
       <c r="R4">
-        <v>47.163692837858</v>
+        <v>11.29590178875</v>
       </c>
       <c r="S4">
-        <v>0.01099866613559602</v>
+        <v>0.002093134530889067</v>
       </c>
       <c r="T4">
-        <v>0.01099866613559602</v>
+        <v>0.002093134530889067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.256823</v>
       </c>
       <c r="I5">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J5">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N5">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P5">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q5">
-        <v>17.77657358223788</v>
+        <v>9.551197100827665</v>
       </c>
       <c r="R5">
-        <v>159.989162240141</v>
+        <v>85.960773907449</v>
       </c>
       <c r="S5">
-        <v>0.03730978799396602</v>
+        <v>0.01592856130767937</v>
       </c>
       <c r="T5">
-        <v>0.03730978799396603</v>
+        <v>0.01592856130767937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.256823</v>
       </c>
       <c r="I6">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J6">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O6">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P6">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q6">
         <v>144.7902690707847</v>
@@ -818,10 +818,10 @@
         <v>1303.112421637063</v>
       </c>
       <c r="S6">
-        <v>0.3038883853307915</v>
+        <v>0.2414671850347986</v>
       </c>
       <c r="T6">
-        <v>0.3038883853307916</v>
+        <v>0.2414671850347987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.256823</v>
       </c>
       <c r="I7">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J7">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N7">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P7">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q7">
-        <v>94.00179958359976</v>
+        <v>102.7712549328283</v>
       </c>
       <c r="R7">
-        <v>846.016196252398</v>
+        <v>924.9412943954551</v>
       </c>
       <c r="S7">
-        <v>0.1972926445746398</v>
+        <v>0.1713919436049379</v>
       </c>
       <c r="T7">
-        <v>0.1972926445746399</v>
+        <v>0.1713919436049379</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H8">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.090355666666666</v>
+        <v>1.660421</v>
       </c>
       <c r="N8">
-        <v>9.271066999999999</v>
+        <v>4.981262999999999</v>
       </c>
       <c r="O8">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="P8">
-        <v>0.06928583878088775</v>
+        <v>0.03714789785507311</v>
       </c>
       <c r="Q8">
-        <v>14.24425997096989</v>
+        <v>12.60704476480633</v>
       </c>
       <c r="R8">
-        <v>128.198339738729</v>
+        <v>113.463402883257</v>
       </c>
       <c r="S8">
-        <v>0.0298961055227674</v>
+        <v>0.02102480802406165</v>
       </c>
       <c r="T8">
-        <v>0.0298961055227674</v>
+        <v>0.02102480802406164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H9">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>75.51288099999999</v>
       </c>
       <c r="O9">
-        <v>0.5643334579338453</v>
+        <v>0.5631392661118858</v>
       </c>
       <c r="P9">
-        <v>0.5643334579338454</v>
+        <v>0.5631392661118859</v>
       </c>
       <c r="Q9">
-        <v>116.0195593582608</v>
+        <v>191.1150387133732</v>
       </c>
       <c r="R9">
-        <v>1044.176034224347</v>
+        <v>1720.035348420359</v>
       </c>
       <c r="S9">
-        <v>0.243503909388658</v>
+        <v>0.3187231484000769</v>
       </c>
       <c r="T9">
-        <v>0.2435039093886581</v>
+        <v>0.3187231484000769</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H10">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.34167533333333</v>
+        <v>17.866195</v>
       </c>
       <c r="N10">
-        <v>49.025026</v>
+        <v>53.598585</v>
       </c>
       <c r="O10">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="P10">
-        <v>0.366380703285267</v>
+        <v>0.399712836033041</v>
       </c>
       <c r="Q10">
-        <v>75.32306857749577</v>
+        <v>135.6522954972017</v>
       </c>
       <c r="R10">
-        <v>677.9076171974619</v>
+        <v>1220.870659474815</v>
       </c>
       <c r="S10">
-        <v>0.1580893925750311</v>
+        <v>0.2262277578972141</v>
       </c>
       <c r="T10">
-        <v>0.1580893925750311</v>
+        <v>0.2262277578972141</v>
       </c>
     </row>
   </sheetData>
